--- a/datos/Nomina de Traslado Transp. Transvan Spa V región Bajada 08-04-2025.xlsx
+++ b/datos/Nomina de Traslado Transp. Transvan Spa V región Bajada 08-04-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mpmltda.sharepoint.com/sites/EquipoMovilizacinMPM/Documentos compartidos/Movilización/CLAUDIO MILET TRANSP. GARCIA EX TRANSVAN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\matimurata\proyecto-mpm\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{EF4F02D8-B3AA-44B9-B677-0BF54DB8AB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C0B559-D7A7-48A3-9D35-69CA0F2ED618}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181A4010-35D0-4A7E-AA4F-E07320DC9EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{7E96E1C5-9812-4E3A-8456-2B204119E440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7E96E1C5-9812-4E3A-8456-2B204119E440}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLA DINAMICA" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="530">
   <si>
     <t>CENTRO DE COSTO</t>
   </si>
@@ -153,9 +153,6 @@
     <t>05-09-1973</t>
   </si>
   <si>
-    <t>937176411 / 936151699</t>
-  </si>
-  <si>
     <t>CABILDO</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>02-12-1973</t>
   </si>
   <si>
-    <t>962974577-954554904</t>
-  </si>
-  <si>
     <t>LOS ANDES</t>
   </si>
   <si>
@@ -333,9 +327,6 @@
     <t>30-10-1968</t>
   </si>
   <si>
-    <t>96250 2481</t>
-  </si>
-  <si>
     <t>13365059-8</t>
   </si>
   <si>
@@ -936,9 +927,6 @@
     <t>18-06-1979</t>
   </si>
   <si>
-    <t>982250035 / 91505243</t>
-  </si>
-  <si>
     <t>16203771-4</t>
   </si>
   <si>
@@ -1035,9 +1023,6 @@
     <t>24-01-1991</t>
   </si>
   <si>
-    <t>944857105 WHATSAPP/ 987876262</t>
-  </si>
-  <si>
     <t>CATEMU</t>
   </si>
   <si>
@@ -1248,9 +1233,6 @@
     <t>02-02-1992</t>
   </si>
   <si>
-    <t>957520307 / 95342657</t>
-  </si>
-  <si>
     <t>16152391-7</t>
   </si>
   <si>
@@ -1419,9 +1401,6 @@
     <t>08-09-1980</t>
   </si>
   <si>
-    <t>933761487 / 963921484</t>
-  </si>
-  <si>
     <t>12938019-5</t>
   </si>
   <si>
@@ -1588,9 +1567,6 @@
   </si>
   <si>
     <t>09-02-1989</t>
-  </si>
-  <si>
-    <t>974265618 / 993394993</t>
   </si>
   <si>
     <t>17432442-5</t>
@@ -1664,9 +1640,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1875,7 +1851,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1945,7 +1921,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2106,7 +2082,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2154,7 +2130,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2166,54 +2142,54 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5187,10 +5163,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="166" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="32" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -25096,10 +25072,10 @@
     <cacheField name="CUENTA" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="31"/>
     </cacheField>
-    <cacheField name="C/U" numFmtId="165">
+    <cacheField name="C/U" numFmtId="166">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="32282.49" maxValue="32282.49"/>
     </cacheField>
-    <cacheField name="TOTAL" numFmtId="42">
+    <cacheField name="TOTAL" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="32282.49" maxValue="1000757.1900000001"/>
     </cacheField>
   </cacheFields>
@@ -28197,8 +28173,8 @@
   </colItems>
   <dataFields count="3">
     <dataField name="Suma de CUENTA" fld="14" baseField="0" baseItem="0"/>
-    <dataField name="Suma de C/U" fld="15" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="Suma de TOTAL" fld="16" baseField="0" baseItem="0" numFmtId="42"/>
+    <dataField name="Suma de C/U" fld="15" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Suma de TOTAL" fld="16" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="14">
     <format dxfId="301">
@@ -28677,21 +28653,21 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="106" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C3" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="110" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -28733,7 +28709,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="110" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>31</v>
@@ -28747,7 +28723,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="110" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B8">
         <v>23</v>
@@ -28761,7 +28737,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="110" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -28775,7 +28751,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -28789,7 +28765,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="110" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -28803,7 +28779,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="110" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -28817,7 +28793,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>27</v>
@@ -28831,7 +28807,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -28845,7 +28821,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="110" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -28859,7 +28835,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="107" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B16">
         <v>157</v>
@@ -28885,8 +28861,8 @@
   </sheetPr>
   <dimension ref="A1:Q158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28936,7 +28912,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -28954,30 +28930,30 @@
         <v>12</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="P1" s="103" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Q1" s="100" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E2" s="7">
-        <v>976726720</v>
+        <v>56993000241</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -28986,10 +28962,10 @@
         <v>18</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>20</v>
@@ -29001,38 +28977,36 @@
         <v>45755</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="117">
+      <c r="O2" s="111">
         <v>12</v>
       </c>
-      <c r="P2" s="118">
+      <c r="P2" s="112">
         <v>32282.49</v>
       </c>
-      <c r="Q2" s="119">
+      <c r="Q2" s="113">
         <f>O2*P2</f>
         <v>387389.88</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="6">
-        <v>973741426</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
@@ -29040,10 +29014,10 @@
         <v>18</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>20</v>
@@ -29055,31 +29029,29 @@
         <v>45755</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="117"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="119"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="113"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="7">
-        <v>982828109</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
@@ -29087,10 +29059,10 @@
         <v>18</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>20</v>
@@ -29102,31 +29074,29 @@
         <v>45755</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="117"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="119"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="113"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="7">
-        <v>992111716</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="12" t="s">
         <v>17</v>
       </c>
@@ -29134,10 +29104,10 @@
         <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>20</v>
@@ -29149,31 +29119,29 @@
         <v>45755</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="117"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="119"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="113"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="7">
-        <v>944413365</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="12" t="s">
         <v>17</v>
       </c>
@@ -29181,10 +29149,10 @@
         <v>18</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>20</v>
@@ -29196,31 +29164,29 @@
         <v>45755</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="117"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="119"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="113"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="7">
-        <v>56977908455</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
@@ -29228,10 +29194,10 @@
         <v>18</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>20</v>
@@ -29243,31 +29209,29 @@
         <v>45755</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="117"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="119"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="113"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="6">
-        <v>984692227</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
@@ -29290,31 +29254,29 @@
         <v>45755</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="117"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="119"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="113"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="7">
-        <v>962822062</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
         <v>17</v>
       </c>
@@ -29322,7 +29284,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>19</v>
@@ -29337,31 +29299,29 @@
         <v>45755</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="117"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="119"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="113"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="9">
-        <v>992971230</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
@@ -29384,31 +29344,29 @@
         <v>45755</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="117"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="119"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="113"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="7">
-        <v>940634545</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
         <v>17</v>
       </c>
@@ -29431,31 +29389,29 @@
         <v>45755</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="117"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="119"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="113"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D12" s="15">
         <v>35075</v>
       </c>
-      <c r="E12" s="6">
-        <v>934292528</v>
-      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
@@ -29478,31 +29434,29 @@
         <v>45755</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="117"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="119"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="113"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="7">
-        <v>942131235</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
         <v>17</v>
       </c>
@@ -29525,14 +29479,14 @@
         <v>45755</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="117"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="119"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="113"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
@@ -29547,9 +29501,7 @@
       <c r="D14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="17">
-        <v>956564808</v>
-      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="17" t="s">
         <v>17</v>
       </c>
@@ -29577,13 +29529,13 @@
       <c r="N14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="111">
+      <c r="O14" s="114">
         <v>3</v>
       </c>
-      <c r="P14" s="112">
+      <c r="P14" s="115">
         <v>32282.49</v>
       </c>
-      <c r="Q14" s="113">
+      <c r="Q14" s="116">
         <f>O14*P14</f>
         <v>96847.47</v>
       </c>
@@ -29601,9 +29553,7 @@
       <c r="D15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="20">
-        <v>965000192</v>
-      </c>
+      <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
@@ -29631,9 +29581,9 @@
       <c r="N15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="111"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="113"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="116"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
@@ -29648,9 +29598,7 @@
       <c r="D16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="17">
-        <v>977126577</v>
-      </c>
+      <c r="E16" s="17"/>
       <c r="F16" s="17" t="s">
         <v>17</v>
       </c>
@@ -29678,9 +29626,9 @@
       <c r="N16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="111"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="113"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="116"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -29695,9 +29643,7 @@
       <c r="D17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
         <v>17</v>
       </c>
@@ -29705,10 +29651,10 @@
         <v>18</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>20</v>
@@ -29725,13 +29671,13 @@
       <c r="N17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="117">
+      <c r="O17" s="111">
         <v>13</v>
       </c>
-      <c r="P17" s="118">
+      <c r="P17" s="112">
         <v>32282.49</v>
       </c>
-      <c r="Q17" s="119">
+      <c r="Q17" s="113">
         <f>O17*P17</f>
         <v>419672.37</v>
       </c>
@@ -29741,17 +29687,15 @@
         <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="7">
-        <v>973805424</v>
-      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
         <v>17</v>
       </c>
@@ -29759,10 +29703,10 @@
         <v>18</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>20</v>
@@ -29779,26 +29723,24 @@
       <c r="N18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="117"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="119"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="113"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="9">
-        <v>973749447</v>
-      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="6" t="s">
         <v>17</v>
       </c>
@@ -29806,10 +29748,10 @@
         <v>18</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>20</v>
@@ -29826,26 +29768,24 @@
       <c r="N19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="117"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="119"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="113"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="6" t="s">
         <v>17</v>
       </c>
@@ -29853,10 +29793,10 @@
         <v>18</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>20</v>
@@ -29873,26 +29813,24 @@
       <c r="N20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="117"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="119"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="113"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="7">
-        <v>941474135</v>
-      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
         <v>17</v>
       </c>
@@ -29920,26 +29858,24 @@
       <c r="N21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="117"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="119"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="113"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="9">
-        <v>952003563</v>
-      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="6" t="s">
         <v>17</v>
       </c>
@@ -29947,7 +29883,7 @@
         <v>18</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>19</v>
@@ -29967,26 +29903,24 @@
       <c r="N22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="117"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="119"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="113"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="9">
-        <v>989926884</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="6" t="s">
         <v>17</v>
       </c>
@@ -29994,10 +29928,10 @@
         <v>18</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>20</v>
@@ -30014,26 +29948,24 @@
       <c r="N23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="117"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="119"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="113"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="9">
-        <v>958051443</v>
-      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
         <v>17</v>
       </c>
@@ -30061,26 +29993,24 @@
       <c r="N24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="117"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="119"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="113"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="9">
-        <v>962031988</v>
-      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="6" t="s">
         <v>17</v>
       </c>
@@ -30088,10 +30018,10 @@
         <v>18</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>20</v>
@@ -30108,26 +30038,24 @@
       <c r="N25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O25" s="117"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="119"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="113"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="25">
         <v>24152</v>
       </c>
-      <c r="E26" s="9">
-        <v>940545968</v>
-      </c>
+      <c r="E26" s="9"/>
       <c r="F26" s="6" t="s">
         <v>17</v>
       </c>
@@ -30135,10 +30063,10 @@
         <v>18</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>20</v>
@@ -30155,26 +30083,24 @@
       <c r="N26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="117"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="119"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="113"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="7">
-        <v>966320810</v>
-      </c>
+      <c r="E27" s="7"/>
       <c r="F27" s="9" t="s">
         <v>17</v>
       </c>
@@ -30182,7 +30108,7 @@
         <v>18</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>19</v>
@@ -30202,26 +30128,24 @@
       <c r="N27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="117"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="119"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="113"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="7">
-        <v>996327284</v>
-      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
         <v>17</v>
       </c>
@@ -30229,7 +30153,7 @@
         <v>18</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>19</v>
@@ -30249,26 +30173,24 @@
       <c r="N28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O28" s="117"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="119"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="113"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="7">
-        <v>926316154</v>
-      </c>
+      <c r="E29" s="7"/>
       <c r="F29" s="6" t="s">
         <v>17</v>
       </c>
@@ -30276,10 +30198,10 @@
         <v>18</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>20</v>
@@ -30296,26 +30218,24 @@
       <c r="N29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="117"/>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="119"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="113"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="E30" s="28">
-        <v>956239281</v>
-      </c>
+      <c r="E30" s="28"/>
       <c r="F30" s="30" t="s">
         <v>17</v>
       </c>
@@ -30323,53 +30243,51 @@
         <v>18</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J30" s="28" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L30" s="31">
         <v>45755</v>
       </c>
       <c r="M30" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O30" s="111">
+        <v>232</v>
+      </c>
+      <c r="O30" s="114">
         <v>31</v>
       </c>
-      <c r="P30" s="112">
+      <c r="P30" s="115">
         <v>32282.49</v>
       </c>
-      <c r="Q30" s="113">
+      <c r="Q30" s="116">
         <f>O30*P30</f>
         <v>1000757.1900000001</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="E31" s="28">
-        <v>957320391</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="E31" s="28"/>
       <c r="F31" s="30" t="s">
         <v>17</v>
       </c>
@@ -30386,37 +30304,35 @@
         <v>20</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L31" s="31">
         <v>45755</v>
       </c>
       <c r="M31" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N31" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O31" s="111"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O31" s="114"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="116"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="E32" s="30">
-        <v>961148204</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E32" s="30"/>
       <c r="F32" s="30" t="s">
         <v>17</v>
       </c>
@@ -30433,37 +30349,35 @@
         <v>20</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L32" s="31">
         <v>45755</v>
       </c>
       <c r="M32" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N32" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O32" s="111"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O32" s="114"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="116"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E33" s="28">
-        <v>990340572</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="E33" s="28"/>
       <c r="F33" s="30" t="s">
         <v>17</v>
       </c>
@@ -30480,37 +30394,35 @@
         <v>20</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L33" s="31">
         <v>45755</v>
       </c>
       <c r="M33" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N33" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O33" s="111"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O33" s="114"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="116"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="E34" s="30">
-        <v>973438555</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E34" s="30"/>
       <c r="F34" s="30" t="s">
         <v>17</v>
       </c>
@@ -30527,37 +30439,35 @@
         <v>20</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L34" s="31">
         <v>45755</v>
       </c>
       <c r="M34" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N34" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O34" s="111"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O34" s="114"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="116"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="E35" s="28">
-        <v>937709926</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="E35" s="28"/>
       <c r="F35" s="30" t="s">
         <v>17</v>
       </c>
@@ -30565,46 +30475,44 @@
         <v>18</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J35" s="30" t="s">
         <v>20</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L35" s="31">
         <v>45755</v>
       </c>
       <c r="M35" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N35" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O35" s="111"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O35" s="114"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="116"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36" s="30">
-        <v>989394766</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="E36" s="30"/>
       <c r="F36" s="30" t="s">
         <v>17</v>
       </c>
@@ -30621,37 +30529,35 @@
         <v>20</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L36" s="31">
         <v>45755</v>
       </c>
       <c r="M36" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N36" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O36" s="111"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O36" s="114"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="116"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D37" s="35">
         <v>31211</v>
       </c>
-      <c r="E37" s="30">
-        <v>997498767</v>
-      </c>
+      <c r="E37" s="30"/>
       <c r="F37" s="30" t="s">
         <v>17</v>
       </c>
@@ -30668,37 +30574,35 @@
         <v>20</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L37" s="31">
         <v>45755</v>
       </c>
       <c r="M37" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N37" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O37" s="111"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O37" s="114"/>
+      <c r="P37" s="115"/>
+      <c r="Q37" s="116"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="28">
-        <v>974497825</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E38" s="28"/>
       <c r="F38" s="30" t="s">
         <v>17</v>
       </c>
@@ -30715,37 +30619,35 @@
         <v>20</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L38" s="31">
         <v>45755</v>
       </c>
       <c r="M38" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N38" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O38" s="111"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O38" s="114"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="116"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="E39" s="28">
-        <v>961752924</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="E39" s="28"/>
       <c r="F39" s="30" t="s">
         <v>17</v>
       </c>
@@ -30762,37 +30664,35 @@
         <v>20</v>
       </c>
       <c r="K39" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L39" s="31">
         <v>45755</v>
       </c>
       <c r="M39" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N39" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O39" s="111"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O39" s="114"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="116"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="E40" s="28">
-        <v>982644796</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E40" s="28"/>
       <c r="F40" s="30" t="s">
         <v>17</v>
       </c>
@@ -30800,46 +30700,44 @@
         <v>18</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J40" s="28" t="s">
         <v>20</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L40" s="31">
         <v>45755</v>
       </c>
       <c r="M40" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N40" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O40" s="111"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O40" s="114"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="116"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="E41" s="28">
-        <v>991716156</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E41" s="28"/>
       <c r="F41" s="30" t="s">
         <v>17</v>
       </c>
@@ -30856,37 +30754,35 @@
         <v>20</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L41" s="31">
         <v>45755</v>
       </c>
       <c r="M41" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N41" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O41" s="111"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O41" s="114"/>
+      <c r="P41" s="115"/>
+      <c r="Q41" s="116"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="E42" s="28">
-        <v>922520177</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="E42" s="28"/>
       <c r="F42" s="30" t="s">
         <v>17</v>
       </c>
@@ -30903,37 +30799,35 @@
         <v>20</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L42" s="31">
         <v>45755</v>
       </c>
       <c r="M42" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N42" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O42" s="111"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O42" s="114"/>
+      <c r="P42" s="115"/>
+      <c r="Q42" s="116"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="E43" s="28">
-        <v>945835770</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E43" s="28"/>
       <c r="F43" s="30" t="s">
         <v>17</v>
       </c>
@@ -30941,7 +30835,7 @@
         <v>18</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I43" s="30" t="s">
         <v>19</v>
@@ -30950,37 +30844,35 @@
         <v>20</v>
       </c>
       <c r="K43" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L43" s="31">
         <v>45755</v>
       </c>
       <c r="M43" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N43" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O43" s="111"/>
-      <c r="P43" s="112"/>
-      <c r="Q43" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O43" s="114"/>
+      <c r="P43" s="115"/>
+      <c r="Q43" s="116"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="E44" s="28">
-        <v>963523883</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="E44" s="28"/>
       <c r="F44" s="30" t="s">
         <v>17</v>
       </c>
@@ -30988,46 +30880,44 @@
         <v>18</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J44" s="30" t="s">
         <v>20</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L44" s="31">
         <v>45755</v>
       </c>
       <c r="M44" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N44" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O44" s="111"/>
-      <c r="P44" s="112"/>
-      <c r="Q44" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O44" s="114"/>
+      <c r="P44" s="115"/>
+      <c r="Q44" s="116"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="E45" s="28">
-        <v>972862534</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E45" s="28"/>
       <c r="F45" s="30" t="s">
         <v>17</v>
       </c>
@@ -31035,7 +30925,7 @@
         <v>18</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I45" s="30" t="s">
         <v>19</v>
@@ -31044,37 +30934,35 @@
         <v>20</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L45" s="31">
         <v>45755</v>
       </c>
       <c r="M45" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N45" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O45" s="111"/>
-      <c r="P45" s="112"/>
-      <c r="Q45" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O45" s="114"/>
+      <c r="P45" s="115"/>
+      <c r="Q45" s="116"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="E46" s="28">
-        <v>931255539</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E46" s="28"/>
       <c r="F46" s="30" t="s">
         <v>17</v>
       </c>
@@ -31082,46 +30970,44 @@
         <v>18</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>20</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L46" s="31">
         <v>45755</v>
       </c>
       <c r="M46" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O46" s="111"/>
-      <c r="P46" s="112"/>
-      <c r="Q46" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O46" s="114"/>
+      <c r="P46" s="115"/>
+      <c r="Q46" s="116"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D47" s="35">
         <v>32470</v>
       </c>
-      <c r="E47" s="30">
-        <v>959062666</v>
-      </c>
+      <c r="E47" s="30"/>
       <c r="F47" s="30" t="s">
         <v>17</v>
       </c>
@@ -31129,46 +31015,44 @@
         <v>18</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>20</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L47" s="31">
         <v>45755</v>
       </c>
       <c r="M47" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N47" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O47" s="111"/>
-      <c r="P47" s="112"/>
-      <c r="Q47" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O47" s="114"/>
+      <c r="P47" s="115"/>
+      <c r="Q47" s="116"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="E48" s="28">
-        <v>934004159</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="E48" s="28"/>
       <c r="F48" s="30" t="s">
         <v>17</v>
       </c>
@@ -31176,46 +31060,44 @@
         <v>18</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J48" s="30" t="s">
         <v>20</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L48" s="31">
         <v>45755</v>
       </c>
       <c r="M48" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N48" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O48" s="111"/>
-      <c r="P48" s="112"/>
-      <c r="Q48" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O48" s="114"/>
+      <c r="P48" s="115"/>
+      <c r="Q48" s="116"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="E49" s="28">
-        <v>942205679</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="E49" s="28"/>
       <c r="F49" s="30" t="s">
         <v>17</v>
       </c>
@@ -31223,46 +31105,44 @@
         <v>18</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I49" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J49" s="30" t="s">
         <v>20</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L49" s="31">
         <v>45755</v>
       </c>
       <c r="M49" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N49" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O49" s="111"/>
-      <c r="P49" s="112"/>
-      <c r="Q49" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O49" s="114"/>
+      <c r="P49" s="115"/>
+      <c r="Q49" s="116"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="E50" s="30">
-        <v>985329819</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="E50" s="30"/>
       <c r="F50" s="30" t="s">
         <v>17</v>
       </c>
@@ -31270,7 +31150,7 @@
         <v>18</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I50" s="30" t="s">
         <v>19</v>
@@ -31279,37 +31159,35 @@
         <v>20</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L50" s="31">
         <v>45755</v>
       </c>
       <c r="M50" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N50" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O50" s="111"/>
-      <c r="P50" s="112"/>
-      <c r="Q50" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O50" s="114"/>
+      <c r="P50" s="115"/>
+      <c r="Q50" s="116"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>297</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="E51" s="28"/>
       <c r="F51" s="30" t="s">
         <v>17</v>
       </c>
@@ -31326,45 +31204,43 @@
         <v>20</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L51" s="31">
         <v>45755</v>
       </c>
       <c r="M51" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N51" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O51" s="111"/>
-      <c r="P51" s="112"/>
-      <c r="Q51" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O51" s="114"/>
+      <c r="P51" s="115"/>
+      <c r="Q51" s="116"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D52" s="34">
         <v>31504</v>
       </c>
-      <c r="E52" s="30">
-        <v>976292508</v>
-      </c>
+      <c r="E52" s="30"/>
       <c r="F52" s="30" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G52" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I52" s="30" t="s">
         <v>19</v>
@@ -31373,37 +31249,35 @@
         <v>20</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L52" s="31">
         <v>45755</v>
       </c>
       <c r="M52" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N52" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O52" s="111"/>
-      <c r="P52" s="112"/>
-      <c r="Q52" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O52" s="114"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="116"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="E53" s="30">
-        <v>947086160</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E53" s="30"/>
       <c r="F53" s="30" t="s">
         <v>17</v>
       </c>
@@ -31411,46 +31285,44 @@
         <v>18</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J53" s="30" t="s">
         <v>20</v>
       </c>
       <c r="K53" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L53" s="31">
         <v>45755</v>
       </c>
       <c r="M53" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N53" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O53" s="111"/>
-      <c r="P53" s="112"/>
-      <c r="Q53" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O53" s="114"/>
+      <c r="P53" s="115"/>
+      <c r="Q53" s="116"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="E54" s="30">
-        <v>954094916</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E54" s="30"/>
       <c r="F54" s="30" t="s">
         <v>17</v>
       </c>
@@ -31458,7 +31330,7 @@
         <v>18</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I54" s="30" t="s">
         <v>19</v>
@@ -31467,37 +31339,35 @@
         <v>20</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L54" s="31">
         <v>45755</v>
       </c>
       <c r="M54" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O54" s="111"/>
-      <c r="P54" s="112"/>
-      <c r="Q54" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O54" s="114"/>
+      <c r="P54" s="115"/>
+      <c r="Q54" s="116"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="E55" s="28">
-        <v>962761333</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="E55" s="28"/>
       <c r="F55" s="30" t="s">
         <v>17</v>
       </c>
@@ -31514,37 +31384,35 @@
         <v>20</v>
       </c>
       <c r="K55" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L55" s="31">
         <v>45755</v>
       </c>
       <c r="M55" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N55" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O55" s="111"/>
-      <c r="P55" s="112"/>
-      <c r="Q55" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O55" s="114"/>
+      <c r="P55" s="115"/>
+      <c r="Q55" s="116"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="E56" s="28">
-        <v>998581172</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="E56" s="28"/>
       <c r="F56" s="30" t="s">
         <v>17</v>
       </c>
@@ -31552,7 +31420,7 @@
         <v>18</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I56" s="30" t="s">
         <v>19</v>
@@ -31561,37 +31429,35 @@
         <v>20</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L56" s="31">
         <v>45755</v>
       </c>
       <c r="M56" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O56" s="111"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O56" s="114"/>
+      <c r="P56" s="115"/>
+      <c r="Q56" s="116"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="E57" s="28">
-        <v>963524501</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E57" s="28"/>
       <c r="F57" s="30" t="s">
         <v>17</v>
       </c>
@@ -31608,37 +31474,35 @@
         <v>20</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L57" s="31">
         <v>45755</v>
       </c>
       <c r="M57" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N57" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O57" s="111"/>
-      <c r="P57" s="112"/>
-      <c r="Q57" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O57" s="114"/>
+      <c r="P57" s="115"/>
+      <c r="Q57" s="116"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="E58" s="30">
-        <v>986072551</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="E58" s="30"/>
       <c r="F58" s="30" t="s">
         <v>17</v>
       </c>
@@ -31655,37 +31519,35 @@
         <v>20</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L58" s="31">
         <v>45755</v>
       </c>
       <c r="M58" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N58" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O58" s="111"/>
-      <c r="P58" s="112"/>
-      <c r="Q58" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O58" s="114"/>
+      <c r="P58" s="115"/>
+      <c r="Q58" s="116"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="E59" s="30">
-        <v>965593316</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="E59" s="30"/>
       <c r="F59" s="30" t="s">
         <v>17</v>
       </c>
@@ -31702,37 +31564,35 @@
         <v>20</v>
       </c>
       <c r="K59" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L59" s="31">
         <v>45755</v>
       </c>
       <c r="M59" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N59" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O59" s="111"/>
-      <c r="P59" s="112"/>
-      <c r="Q59" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O59" s="114"/>
+      <c r="P59" s="115"/>
+      <c r="Q59" s="116"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="E60" s="30">
-        <v>989135421</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="E60" s="30"/>
       <c r="F60" s="30" t="s">
         <v>17</v>
       </c>
@@ -31749,37 +31609,35 @@
         <v>20</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L60" s="31">
         <v>45755</v>
       </c>
       <c r="M60" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N60" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O60" s="111"/>
-      <c r="P60" s="112"/>
-      <c r="Q60" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="O60" s="114"/>
+      <c r="P60" s="115"/>
+      <c r="Q60" s="116"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>414</v>
-      </c>
-      <c r="E61" s="38">
-        <v>986951244</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="E61" s="38"/>
       <c r="F61" s="37" t="s">
         <v>17</v>
       </c>
@@ -31787,10 +31645,10 @@
         <v>18</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I61" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J61" s="38" t="s">
         <v>20</v>
@@ -31802,38 +31660,36 @@
         <v>45755</v>
       </c>
       <c r="M61" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N61" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O61" s="117">
+      <c r="O61" s="111">
         <v>23</v>
       </c>
-      <c r="P61" s="118">
+      <c r="P61" s="112">
         <v>32282.49</v>
       </c>
-      <c r="Q61" s="119">
+      <c r="Q61" s="113">
         <f>O61*P61</f>
         <v>742497.27</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D62" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="B62" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>416</v>
-      </c>
-      <c r="D62" s="44" t="s">
-        <v>417</v>
-      </c>
-      <c r="E62" s="42">
-        <v>979624961</v>
-      </c>
+      <c r="E62" s="42"/>
       <c r="F62" s="12" t="s">
         <v>17</v>
       </c>
@@ -31841,10 +31697,10 @@
         <v>18</v>
       </c>
       <c r="H62" s="42" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J62" s="42" t="s">
         <v>20</v>
@@ -31856,42 +31712,40 @@
         <v>45755</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N62" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O62" s="117"/>
-      <c r="P62" s="118"/>
-      <c r="Q62" s="119"/>
+      <c r="O62" s="111"/>
+      <c r="P62" s="112"/>
+      <c r="Q62" s="113"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="E63" s="38">
-        <v>958298823</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="E63" s="38"/>
       <c r="F63" s="37" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>18</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>20</v>
@@ -31903,31 +31757,29 @@
         <v>45755</v>
       </c>
       <c r="M63" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N63" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O63" s="117"/>
-      <c r="P63" s="118"/>
-      <c r="Q63" s="119"/>
+      <c r="O63" s="111"/>
+      <c r="P63" s="112"/>
+      <c r="Q63" s="113"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D64" s="46">
         <v>26694</v>
       </c>
-      <c r="E64" s="47">
-        <v>993270425</v>
-      </c>
+      <c r="E64" s="47"/>
       <c r="F64" s="12" t="s">
         <v>17</v>
       </c>
@@ -31950,31 +31802,29 @@
         <v>45755</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N64" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O64" s="117"/>
-      <c r="P64" s="118"/>
-      <c r="Q64" s="119"/>
+      <c r="O64" s="111"/>
+      <c r="P64" s="112"/>
+      <c r="Q64" s="113"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D65" s="44">
         <v>31242</v>
       </c>
-      <c r="E65" s="42">
-        <v>961776743</v>
-      </c>
+      <c r="E65" s="42"/>
       <c r="F65" s="12" t="s">
         <v>17</v>
       </c>
@@ -31982,10 +31832,10 @@
         <v>18</v>
       </c>
       <c r="H65" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J65" s="42" t="s">
         <v>20</v>
@@ -31997,31 +31847,29 @@
         <v>45755</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N65" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O65" s="117"/>
-      <c r="P65" s="118"/>
-      <c r="Q65" s="119"/>
+      <c r="O65" s="111"/>
+      <c r="P65" s="112"/>
+      <c r="Q65" s="113"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>428</v>
-      </c>
-      <c r="E66" s="38">
-        <v>958459160</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="E66" s="38"/>
       <c r="F66" s="37" t="s">
         <v>17</v>
       </c>
@@ -32029,10 +31877,10 @@
         <v>18</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I66" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J66" s="38" t="s">
         <v>20</v>
@@ -32044,31 +31892,29 @@
         <v>45755</v>
       </c>
       <c r="M66" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N66" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O66" s="117"/>
-      <c r="P66" s="118"/>
-      <c r="Q66" s="119"/>
+      <c r="O66" s="111"/>
+      <c r="P66" s="112"/>
+      <c r="Q66" s="113"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D67" s="10">
         <v>29340</v>
       </c>
-      <c r="E67" s="9">
-        <v>946311093</v>
-      </c>
+      <c r="E67" s="9"/>
       <c r="F67" s="12" t="s">
         <v>17</v>
       </c>
@@ -32076,10 +31922,10 @@
         <v>18</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>20</v>
@@ -32091,31 +31937,29 @@
         <v>45755</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N67" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O67" s="117"/>
-      <c r="P67" s="118"/>
-      <c r="Q67" s="119"/>
+      <c r="O67" s="111"/>
+      <c r="P67" s="112"/>
+      <c r="Q67" s="113"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="E68" s="42">
-        <v>933522679</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="E68" s="42"/>
       <c r="F68" s="12" t="s">
         <v>17</v>
       </c>
@@ -32123,10 +31967,10 @@
         <v>18</v>
       </c>
       <c r="H68" s="42" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J68" s="42" t="s">
         <v>20</v>
@@ -32138,31 +31982,29 @@
         <v>45755</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N68" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O68" s="117"/>
-      <c r="P68" s="118"/>
-      <c r="Q68" s="119"/>
+      <c r="O68" s="111"/>
+      <c r="P68" s="112"/>
+      <c r="Q68" s="113"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="E69" s="42">
-        <v>923975744</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="E69" s="42"/>
       <c r="F69" s="12" t="s">
         <v>17</v>
       </c>
@@ -32170,10 +32012,10 @@
         <v>18</v>
       </c>
       <c r="H69" s="42" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J69" s="42" t="s">
         <v>20</v>
@@ -32185,31 +32027,29 @@
         <v>45755</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N69" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O69" s="117"/>
-      <c r="P69" s="118"/>
-      <c r="Q69" s="119"/>
+      <c r="O69" s="111"/>
+      <c r="P69" s="112"/>
+      <c r="Q69" s="113"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="E70" s="42">
-        <v>959110978</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="E70" s="42"/>
       <c r="F70" s="12" t="s">
         <v>17</v>
       </c>
@@ -32217,10 +32057,10 @@
         <v>18</v>
       </c>
       <c r="H70" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J70" s="42" t="s">
         <v>20</v>
@@ -32232,31 +32072,29 @@
         <v>45755</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N70" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O70" s="117"/>
-      <c r="P70" s="118"/>
-      <c r="Q70" s="119"/>
+      <c r="O70" s="111"/>
+      <c r="P70" s="112"/>
+      <c r="Q70" s="113"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E71" s="42">
-        <v>942360771</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="E71" s="42"/>
       <c r="F71" s="12" t="s">
         <v>17</v>
       </c>
@@ -32264,10 +32102,10 @@
         <v>18</v>
       </c>
       <c r="H71" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J71" s="42" t="s">
         <v>20</v>
@@ -32279,31 +32117,29 @@
         <v>45755</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N71" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O71" s="117"/>
-      <c r="P71" s="118"/>
-      <c r="Q71" s="119"/>
+      <c r="O71" s="111"/>
+      <c r="P71" s="112"/>
+      <c r="Q71" s="113"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>445</v>
-      </c>
-      <c r="E72" s="38">
-        <v>966356116</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="E72" s="38"/>
       <c r="F72" s="37" t="s">
         <v>17</v>
       </c>
@@ -32326,31 +32162,29 @@
         <v>45755</v>
       </c>
       <c r="M72" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N72" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O72" s="117"/>
-      <c r="P72" s="118"/>
-      <c r="Q72" s="119"/>
+      <c r="O72" s="111"/>
+      <c r="P72" s="112"/>
+      <c r="Q72" s="113"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="E73" s="42">
-        <v>997169924</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="E73" s="42"/>
       <c r="F73" s="12" t="s">
         <v>17</v>
       </c>
@@ -32358,7 +32192,7 @@
         <v>18</v>
       </c>
       <c r="H73" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I73" s="12" t="s">
         <v>19</v>
@@ -32373,31 +32207,29 @@
         <v>45755</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N73" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O73" s="117"/>
-      <c r="P73" s="118"/>
-      <c r="Q73" s="119"/>
+      <c r="O73" s="111"/>
+      <c r="P73" s="112"/>
+      <c r="Q73" s="113"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>451</v>
-      </c>
-      <c r="E74" s="42">
-        <v>982505840</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="E74" s="42"/>
       <c r="F74" s="12" t="s">
         <v>17</v>
       </c>
@@ -32420,31 +32252,29 @@
         <v>45755</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N74" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O74" s="117"/>
-      <c r="P74" s="118"/>
-      <c r="Q74" s="119"/>
+      <c r="O74" s="111"/>
+      <c r="P74" s="112"/>
+      <c r="Q74" s="113"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="E75" s="42">
-        <v>921653164</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="E75" s="42"/>
       <c r="F75" s="12" t="s">
         <v>17</v>
       </c>
@@ -32452,10 +32282,10 @@
         <v>18</v>
       </c>
       <c r="H75" s="42" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J75" s="42" t="s">
         <v>20</v>
@@ -32467,31 +32297,29 @@
         <v>45755</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N75" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O75" s="117"/>
-      <c r="P75" s="118"/>
-      <c r="Q75" s="119"/>
+      <c r="O75" s="111"/>
+      <c r="P75" s="112"/>
+      <c r="Q75" s="113"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>458</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="E76" s="38"/>
       <c r="F76" s="37" t="s">
         <v>17</v>
       </c>
@@ -32499,10 +32327,10 @@
         <v>18</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I76" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J76" s="38" t="s">
         <v>20</v>
@@ -32514,31 +32342,29 @@
         <v>45755</v>
       </c>
       <c r="M76" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N76" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O76" s="117"/>
-      <c r="P76" s="118"/>
-      <c r="Q76" s="119"/>
+      <c r="O76" s="111"/>
+      <c r="P76" s="112"/>
+      <c r="Q76" s="113"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>461</v>
-      </c>
-      <c r="E77" s="37">
-        <v>944674679</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="E77" s="37"/>
       <c r="F77" s="37" t="s">
         <v>17</v>
       </c>
@@ -32561,31 +32387,29 @@
         <v>45755</v>
       </c>
       <c r="M77" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N77" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O77" s="117"/>
-      <c r="P77" s="118"/>
-      <c r="Q77" s="119"/>
+      <c r="O77" s="111"/>
+      <c r="P77" s="112"/>
+      <c r="Q77" s="113"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D78" s="44" t="s">
-        <v>464</v>
-      </c>
-      <c r="E78" s="42">
-        <v>989829220</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="E78" s="42"/>
       <c r="F78" s="12" t="s">
         <v>17</v>
       </c>
@@ -32593,7 +32417,7 @@
         <v>18</v>
       </c>
       <c r="H78" s="42" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>19</v>
@@ -32608,31 +32432,29 @@
         <v>45755</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N78" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O78" s="117"/>
-      <c r="P78" s="118"/>
-      <c r="Q78" s="119"/>
+      <c r="O78" s="111"/>
+      <c r="P78" s="112"/>
+      <c r="Q78" s="113"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>467</v>
-      </c>
-      <c r="E79" s="42">
-        <v>946642214</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="E79" s="42"/>
       <c r="F79" s="12" t="s">
         <v>17</v>
       </c>
@@ -32655,31 +32477,29 @@
         <v>45755</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N79" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O79" s="117"/>
-      <c r="P79" s="118"/>
-      <c r="Q79" s="119"/>
+      <c r="O79" s="111"/>
+      <c r="P79" s="112"/>
+      <c r="Q79" s="113"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>470</v>
-      </c>
-      <c r="E80" s="12">
-        <v>978767064</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="E80" s="12"/>
       <c r="F80" s="12" t="s">
         <v>17</v>
       </c>
@@ -32687,7 +32507,7 @@
         <v>18</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I80" s="12" t="s">
         <v>19</v>
@@ -32702,31 +32522,29 @@
         <v>45755</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N80" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O80" s="117"/>
-      <c r="P80" s="118"/>
-      <c r="Q80" s="119"/>
+      <c r="O80" s="111"/>
+      <c r="P80" s="112"/>
+      <c r="Q80" s="113"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="E81" s="42">
-        <v>998813707</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="E81" s="42"/>
       <c r="F81" s="12" t="s">
         <v>17</v>
       </c>
@@ -32734,10 +32552,10 @@
         <v>18</v>
       </c>
       <c r="H81" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J81" s="42" t="s">
         <v>20</v>
@@ -32749,31 +32567,29 @@
         <v>45755</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N81" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O81" s="117"/>
-      <c r="P81" s="118"/>
-      <c r="Q81" s="119"/>
+      <c r="O81" s="111"/>
+      <c r="P81" s="112"/>
+      <c r="Q81" s="113"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>476</v>
-      </c>
-      <c r="E82" s="38">
-        <v>944741335</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="E82" s="38"/>
       <c r="F82" s="37" t="s">
         <v>17</v>
       </c>
@@ -32781,10 +32597,10 @@
         <v>18</v>
       </c>
       <c r="H82" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I82" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J82" s="38" t="s">
         <v>20</v>
@@ -32796,31 +32612,29 @@
         <v>45755</v>
       </c>
       <c r="M82" s="37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N82" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O82" s="117"/>
-      <c r="P82" s="118"/>
-      <c r="Q82" s="119"/>
+      <c r="O82" s="111"/>
+      <c r="P82" s="112"/>
+      <c r="Q82" s="113"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E83" s="38">
-        <v>945940850</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="E83" s="38"/>
       <c r="F83" s="37" t="s">
         <v>17</v>
       </c>
@@ -32843,31 +32657,29 @@
         <v>45755</v>
       </c>
       <c r="M83" s="37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N83" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O83" s="117"/>
-      <c r="P83" s="118"/>
-      <c r="Q83" s="119"/>
+      <c r="O83" s="111"/>
+      <c r="P83" s="112"/>
+      <c r="Q83" s="113"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="49" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B84" s="50" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D84" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="E84" s="52" t="s">
-        <v>330</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="E84" s="52"/>
       <c r="F84" s="53" t="s">
         <v>17</v>
       </c>
@@ -32875,10 +32687,10 @@
         <v>18</v>
       </c>
       <c r="H84" s="50" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I84" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J84" s="54" t="s">
         <v>20</v>
@@ -32890,38 +32702,36 @@
         <v>45755</v>
       </c>
       <c r="M84" s="54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N84" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O84" s="111">
+      <c r="O84" s="114">
         <v>12</v>
       </c>
-      <c r="P84" s="112">
+      <c r="P84" s="115">
         <v>32282.49</v>
       </c>
-      <c r="Q84" s="113">
+      <c r="Q84" s="116">
         <f>O84*P84</f>
         <v>387389.88</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="49" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B85" s="56" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C85" s="57" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D85" s="58">
         <v>31629</v>
       </c>
-      <c r="E85" s="56">
-        <v>984014610</v>
-      </c>
+      <c r="E85" s="56"/>
       <c r="F85" s="49" t="s">
         <v>17</v>
       </c>
@@ -32929,10 +32739,10 @@
         <v>18</v>
       </c>
       <c r="H85" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I85" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J85" s="56" t="s">
         <v>20</v>
@@ -32944,31 +32754,29 @@
         <v>45755</v>
       </c>
       <c r="M85" s="54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N85" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O85" s="111"/>
-      <c r="P85" s="112"/>
-      <c r="Q85" s="113"/>
+      <c r="O85" s="114"/>
+      <c r="P85" s="115"/>
+      <c r="Q85" s="116"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="59" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="E86" s="20">
-        <v>996940191</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="E86" s="20"/>
       <c r="F86" s="59" t="s">
         <v>17</v>
       </c>
@@ -32976,7 +32784,7 @@
         <v>18</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I86" s="16" t="s">
         <v>19</v>
@@ -32991,31 +32799,29 @@
         <v>45755</v>
       </c>
       <c r="M86" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N86" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O86" s="111"/>
-      <c r="P86" s="112"/>
-      <c r="Q86" s="113"/>
+      <c r="O86" s="114"/>
+      <c r="P86" s="115"/>
+      <c r="Q86" s="116"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="49" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B87" s="49" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C87" s="57" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D87" s="61" t="s">
-        <v>339</v>
-      </c>
-      <c r="E87" s="49">
-        <v>985723134</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="E87" s="49"/>
       <c r="F87" s="49" t="s">
         <v>17</v>
       </c>
@@ -33023,7 +32829,7 @@
         <v>18</v>
       </c>
       <c r="H87" s="49" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I87" s="49" t="s">
         <v>19</v>
@@ -33038,31 +32844,29 @@
         <v>45755</v>
       </c>
       <c r="M87" s="54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N87" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O87" s="111"/>
-      <c r="P87" s="112"/>
-      <c r="Q87" s="113"/>
+      <c r="O87" s="114"/>
+      <c r="P87" s="115"/>
+      <c r="Q87" s="116"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="49" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C88" s="51" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D88" s="56" t="s">
-        <v>343</v>
-      </c>
-      <c r="E88" s="56">
-        <v>936314123</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="E88" s="56"/>
       <c r="F88" s="49" t="s">
         <v>17</v>
       </c>
@@ -33070,7 +32874,7 @@
         <v>18</v>
       </c>
       <c r="H88" s="56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I88" s="49" t="s">
         <v>19</v>
@@ -33085,31 +32889,29 @@
         <v>45755</v>
       </c>
       <c r="M88" s="54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N88" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O88" s="111"/>
-      <c r="P88" s="112"/>
-      <c r="Q88" s="113"/>
+      <c r="O88" s="114"/>
+      <c r="P88" s="115"/>
+      <c r="Q88" s="116"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="59" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C89" s="62" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D89" s="63" t="s">
-        <v>346</v>
-      </c>
-      <c r="E89" s="20">
-        <v>965777851</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="E89" s="20"/>
       <c r="F89" s="59" t="s">
         <v>17</v>
       </c>
@@ -33117,10 +32919,10 @@
         <v>18</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I89" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J89" s="20" t="s">
         <v>20</v>
@@ -33132,31 +32934,29 @@
         <v>45755</v>
       </c>
       <c r="M89" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N89" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O89" s="111"/>
-      <c r="P89" s="112"/>
-      <c r="Q89" s="113"/>
+      <c r="O89" s="114"/>
+      <c r="P89" s="115"/>
+      <c r="Q89" s="116"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="59" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C90" s="62" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="E90" s="16">
-        <v>978458800</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="E90" s="16"/>
       <c r="F90" s="59" t="s">
         <v>17</v>
       </c>
@@ -33164,7 +32964,7 @@
         <v>18</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I90" s="16" t="s">
         <v>19</v>
@@ -33179,31 +32979,29 @@
         <v>45755</v>
       </c>
       <c r="M90" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N90" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O90" s="111"/>
-      <c r="P90" s="112"/>
-      <c r="Q90" s="113"/>
+      <c r="O90" s="114"/>
+      <c r="P90" s="115"/>
+      <c r="Q90" s="116"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="59" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C91" s="62" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D91" s="63">
         <v>25235</v>
       </c>
-      <c r="E91" s="20">
-        <v>941491605</v>
-      </c>
+      <c r="E91" s="20"/>
       <c r="F91" s="59" t="s">
         <v>17</v>
       </c>
@@ -33211,10 +33009,10 @@
         <v>18</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I91" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J91" s="20" t="s">
         <v>20</v>
@@ -33226,31 +33024,29 @@
         <v>45755</v>
       </c>
       <c r="M91" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N91" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O91" s="111"/>
-      <c r="P91" s="112"/>
-      <c r="Q91" s="113"/>
+      <c r="O91" s="114"/>
+      <c r="P91" s="115"/>
+      <c r="Q91" s="116"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="59" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C92" s="62" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D92" s="63">
         <v>25677</v>
       </c>
-      <c r="E92" s="20">
-        <v>958180710</v>
-      </c>
+      <c r="E92" s="20"/>
       <c r="F92" s="59" t="s">
         <v>17</v>
       </c>
@@ -33258,10 +33054,10 @@
         <v>18</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I92" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J92" s="20" t="s">
         <v>20</v>
@@ -33273,42 +33069,40 @@
         <v>45755</v>
       </c>
       <c r="M92" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N92" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O92" s="111"/>
-      <c r="P92" s="112"/>
-      <c r="Q92" s="113"/>
+      <c r="O92" s="114"/>
+      <c r="P92" s="115"/>
+      <c r="Q92" s="116"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="59" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C93" s="62" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D93" s="63">
         <v>35253</v>
       </c>
-      <c r="E93" s="20">
-        <v>933820707</v>
-      </c>
+      <c r="E93" s="20"/>
       <c r="F93" s="59" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I93" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J93" s="20" t="s">
         <v>20</v>
@@ -33320,31 +33114,29 @@
         <v>45755</v>
       </c>
       <c r="M93" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N93" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O93" s="111"/>
-      <c r="P93" s="112"/>
-      <c r="Q93" s="113"/>
+      <c r="O93" s="114"/>
+      <c r="P93" s="115"/>
+      <c r="Q93" s="116"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="59" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C94" s="62" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="E94" s="20">
-        <v>958737323</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="E94" s="20"/>
       <c r="F94" s="59" t="s">
         <v>17</v>
       </c>
@@ -33352,7 +33144,7 @@
         <v>18</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I94" s="59" t="s">
         <v>19</v>
@@ -33367,31 +33159,29 @@
         <v>45755</v>
       </c>
       <c r="M94" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N94" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O94" s="111"/>
-      <c r="P94" s="112"/>
-      <c r="Q94" s="113"/>
+      <c r="O94" s="114"/>
+      <c r="P94" s="115"/>
+      <c r="Q94" s="116"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="59" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="E95" s="16">
-        <v>996105989</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="E95" s="16"/>
       <c r="F95" s="59" t="s">
         <v>17</v>
       </c>
@@ -33399,10 +33189,10 @@
         <v>18</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I95" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J95" s="16" t="s">
         <v>20</v>
@@ -33414,31 +33204,29 @@
         <v>45755</v>
       </c>
       <c r="M95" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N95" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O95" s="111"/>
-      <c r="P95" s="112"/>
-      <c r="Q95" s="113"/>
+      <c r="O95" s="114"/>
+      <c r="P95" s="115"/>
+      <c r="Q95" s="116"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C96" s="64" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E96" s="1">
-        <v>994386507</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
         <v>17</v>
       </c>
@@ -33446,53 +33234,51 @@
         <v>18</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L96" s="2">
         <v>45755</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O96" s="114">
+      <c r="O96" s="117">
         <v>13</v>
       </c>
-      <c r="P96" s="115">
+      <c r="P96" s="118">
         <v>32282.49</v>
       </c>
-      <c r="Q96" s="116">
+      <c r="Q96" s="119">
         <f>O96*P96</f>
         <v>419672.37</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="C97" s="64" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D97" s="2">
         <v>31234</v>
       </c>
-      <c r="E97" s="1">
-        <v>956889324</v>
-      </c>
+      <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
         <v>17</v>
       </c>
@@ -33500,7 +33286,7 @@
         <v>18</v>
       </c>
       <c r="H97" s="65" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>19</v>
@@ -33509,37 +33295,35 @@
         <v>20</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L97" s="2">
         <v>45755</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O97" s="114"/>
-      <c r="P97" s="115"/>
-      <c r="Q97" s="116"/>
+      <c r="O97" s="117"/>
+      <c r="P97" s="118"/>
+      <c r="Q97" s="119"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C98" s="64" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E98" s="1">
-        <v>985710556</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
         <v>17</v>
       </c>
@@ -33547,7 +33331,7 @@
         <v>18</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>19</v>
@@ -33556,37 +33340,35 @@
         <v>20</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L98" s="2">
         <v>45755</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O98" s="114"/>
-      <c r="P98" s="115"/>
-      <c r="Q98" s="116"/>
+      <c r="O98" s="117"/>
+      <c r="P98" s="118"/>
+      <c r="Q98" s="119"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C99" s="64" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E99" s="1">
-        <v>964093838</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
         <v>17</v>
       </c>
@@ -33594,7 +33376,7 @@
         <v>18</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>19</v>
@@ -33603,37 +33385,35 @@
         <v>20</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L99" s="2">
         <v>45755</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O99" s="114"/>
-      <c r="P99" s="115"/>
-      <c r="Q99" s="116"/>
+      <c r="O99" s="117"/>
+      <c r="P99" s="118"/>
+      <c r="Q99" s="119"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B100" s="65" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C100" s="64" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>378</v>
-      </c>
-      <c r="E100" s="65">
-        <v>957840037</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="E100" s="65"/>
       <c r="F100" s="1" t="s">
         <v>17</v>
       </c>
@@ -33641,7 +33421,7 @@
         <v>18</v>
       </c>
       <c r="H100" s="65" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>19</v>
@@ -33650,37 +33430,35 @@
         <v>20</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L100" s="2">
         <v>45755</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O100" s="114"/>
-      <c r="P100" s="115"/>
-      <c r="Q100" s="116"/>
+      <c r="O100" s="117"/>
+      <c r="P100" s="118"/>
+      <c r="Q100" s="119"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C101" s="64" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E101" s="1">
-        <v>989877276</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
         <v>17</v>
       </c>
@@ -33688,7 +33466,7 @@
         <v>18</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>19</v>
@@ -33697,37 +33475,35 @@
         <v>20</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L101" s="2">
         <v>45755</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O101" s="114"/>
-      <c r="P101" s="115"/>
-      <c r="Q101" s="116"/>
+      <c r="O101" s="117"/>
+      <c r="P101" s="118"/>
+      <c r="Q101" s="119"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B102" s="65" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C102" s="64" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D102" s="66" t="s">
-        <v>385</v>
-      </c>
-      <c r="E102" s="65">
-        <v>930241233</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="E102" s="65"/>
       <c r="F102" s="1" t="s">
         <v>17</v>
       </c>
@@ -33744,37 +33520,35 @@
         <v>20</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L102" s="2">
         <v>45755</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O102" s="114"/>
-      <c r="P102" s="115"/>
-      <c r="Q102" s="116"/>
+      <c r="O102" s="117"/>
+      <c r="P102" s="118"/>
+      <c r="Q102" s="119"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B103" s="65" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C103" s="64" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D103" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="E103" s="65">
-        <v>977753964</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="E103" s="65"/>
       <c r="F103" s="1" t="s">
         <v>17</v>
       </c>
@@ -33782,7 +33556,7 @@
         <v>18</v>
       </c>
       <c r="H103" s="65" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>19</v>
@@ -33791,37 +33565,35 @@
         <v>20</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L103" s="2">
         <v>45755</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O103" s="114"/>
-      <c r="P103" s="115"/>
-      <c r="Q103" s="116"/>
+      <c r="O103" s="117"/>
+      <c r="P103" s="118"/>
+      <c r="Q103" s="119"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B104" s="65" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C104" s="64" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D104" s="66" t="s">
-        <v>391</v>
-      </c>
-      <c r="E104" s="65">
-        <v>964873233</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="E104" s="65"/>
       <c r="F104" s="1" t="s">
         <v>17</v>
       </c>
@@ -33829,46 +33601,44 @@
         <v>18</v>
       </c>
       <c r="H104" s="65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L104" s="2">
         <v>45755</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O104" s="114"/>
-      <c r="P104" s="115"/>
-      <c r="Q104" s="116"/>
+      <c r="O104" s="117"/>
+      <c r="P104" s="118"/>
+      <c r="Q104" s="119"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C105" s="64" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E105" s="1">
-        <v>931978864</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
         <v>17</v>
       </c>
@@ -33876,46 +33646,44 @@
         <v>18</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L105" s="2">
         <v>45755</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O105" s="114"/>
-      <c r="P105" s="115"/>
-      <c r="Q105" s="116"/>
+      <c r="O105" s="117"/>
+      <c r="P105" s="118"/>
+      <c r="Q105" s="119"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C106" s="64" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E106" s="1">
-        <v>982724785</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
         <v>17</v>
       </c>
@@ -33923,46 +33691,44 @@
         <v>18</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L106" s="2">
         <v>45755</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O106" s="114"/>
-      <c r="P106" s="115"/>
-      <c r="Q106" s="116"/>
+      <c r="O106" s="117"/>
+      <c r="P106" s="118"/>
+      <c r="Q106" s="119"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C107" s="67" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>401</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
         <v>17</v>
       </c>
@@ -33970,46 +33736,44 @@
         <v>18</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L107" s="2">
         <v>45755</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O107" s="114"/>
-      <c r="P107" s="115"/>
-      <c r="Q107" s="116"/>
+      <c r="O107" s="117"/>
+      <c r="P107" s="118"/>
+      <c r="Q107" s="119"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B108" s="65" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C108" s="64" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D108" s="66" t="s">
-        <v>404</v>
-      </c>
-      <c r="E108" s="65">
-        <v>965158495</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="E108" s="65"/>
       <c r="F108" s="1" t="s">
         <v>17</v>
       </c>
@@ -34026,37 +33790,35 @@
         <v>20</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L108" s="2">
         <v>45755</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O108" s="114"/>
-      <c r="P108" s="115"/>
-      <c r="Q108" s="116"/>
+      <c r="O108" s="117"/>
+      <c r="P108" s="118"/>
+      <c r="Q108" s="119"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="D109" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C109" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E109" s="17">
-        <v>986129665</v>
-      </c>
+      <c r="E109" s="17"/>
       <c r="F109" s="70" t="s">
         <v>17</v>
       </c>
@@ -34064,10 +33826,10 @@
         <v>18</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I109" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J109" s="70" t="s">
         <v>20</v>
@@ -34079,38 +33841,36 @@
         <v>45755</v>
       </c>
       <c r="M109" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N109" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="O109" s="111">
+      <c r="O109" s="114">
         <v>6</v>
       </c>
-      <c r="P109" s="112">
+      <c r="P109" s="115">
         <v>32282.49</v>
       </c>
-      <c r="Q109" s="113">
+      <c r="Q109" s="116">
         <f>O109*P109</f>
         <v>193694.94</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B110" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D110" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C110" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E110" s="17">
-        <v>991526156</v>
-      </c>
+      <c r="E110" s="17"/>
       <c r="F110" s="72" t="s">
         <v>17</v>
       </c>
@@ -34133,31 +33893,29 @@
         <v>45755</v>
       </c>
       <c r="M110" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N110" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="O110" s="111"/>
-      <c r="P110" s="112"/>
-      <c r="Q110" s="113"/>
+      <c r="O110" s="114"/>
+      <c r="P110" s="115"/>
+      <c r="Q110" s="116"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B111" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D111" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C111" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E111" s="17">
-        <v>926049314</v>
-      </c>
+      <c r="E111" s="17"/>
       <c r="F111" s="70" t="s">
         <v>17</v>
       </c>
@@ -34165,10 +33923,10 @@
         <v>18</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I111" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J111" s="17" t="s">
         <v>20</v>
@@ -34180,31 +33938,29 @@
         <v>45755</v>
       </c>
       <c r="M111" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N111" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="O111" s="111"/>
-      <c r="P111" s="112"/>
-      <c r="Q111" s="113"/>
+      <c r="O111" s="114"/>
+      <c r="P111" s="115"/>
+      <c r="Q111" s="116"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B112" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D112" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>96</v>
-      </c>
+      <c r="E112" s="17"/>
       <c r="F112" s="70" t="s">
         <v>17</v>
       </c>
@@ -34227,31 +33983,29 @@
         <v>45755</v>
       </c>
       <c r="M112" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N112" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="O112" s="111"/>
-      <c r="P112" s="112"/>
-      <c r="Q112" s="113"/>
+      <c r="O112" s="114"/>
+      <c r="P112" s="115"/>
+      <c r="Q112" s="116"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E113" s="17">
-        <v>968364331</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E113" s="17"/>
       <c r="F113" s="72" t="s">
         <v>17</v>
       </c>
@@ -34259,10 +34013,10 @@
         <v>18</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I113" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J113" s="73" t="s">
         <v>20</v>
@@ -34274,31 +34028,29 @@
         <v>45755</v>
       </c>
       <c r="M113" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N113" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="O113" s="111"/>
-      <c r="P113" s="112"/>
-      <c r="Q113" s="113"/>
+      <c r="O113" s="114"/>
+      <c r="P113" s="115"/>
+      <c r="Q113" s="116"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E114" s="17">
-        <v>937143011</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E114" s="17"/>
       <c r="F114" s="72" t="s">
         <v>17</v>
       </c>
@@ -34306,10 +34058,10 @@
         <v>18</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I114" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J114" s="73" t="s">
         <v>20</v>
@@ -34321,31 +34073,29 @@
         <v>45755</v>
       </c>
       <c r="M114" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N114" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="O114" s="111"/>
-      <c r="P114" s="112"/>
-      <c r="Q114" s="113"/>
+      <c r="O114" s="114"/>
+      <c r="P114" s="115"/>
+      <c r="Q114" s="116"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="74" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B115" s="74" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C115" s="75" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D115" s="76">
         <v>32671</v>
       </c>
-      <c r="E115" s="74">
-        <v>964687741</v>
-      </c>
+      <c r="E115" s="74"/>
       <c r="F115" s="74" t="s">
         <v>17</v>
       </c>
@@ -34353,7 +34103,7 @@
         <v>18</v>
       </c>
       <c r="H115" s="74" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I115" s="77" t="s">
         <v>19</v>
@@ -34368,38 +34118,36 @@
         <v>45755</v>
       </c>
       <c r="M115" s="74" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N115" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O115" s="114">
+      <c r="O115" s="117">
         <v>2</v>
       </c>
-      <c r="P115" s="115">
+      <c r="P115" s="118">
         <v>32282.49</v>
       </c>
-      <c r="Q115" s="116">
+      <c r="Q115" s="119">
         <f>O115*P115</f>
         <v>64564.98</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="74" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B116" s="74" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C116" s="75" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D116" s="76">
         <v>30593</v>
       </c>
-      <c r="E116" s="74">
-        <v>951903996</v>
-      </c>
+      <c r="E116" s="74"/>
       <c r="F116" s="74" t="s">
         <v>17</v>
       </c>
@@ -34407,10 +34155,10 @@
         <v>18</v>
       </c>
       <c r="H116" s="74" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I116" s="77" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J116" s="78" t="s">
         <v>20</v>
@@ -34422,31 +34170,29 @@
         <v>45755</v>
       </c>
       <c r="M116" s="74" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N116" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O116" s="114"/>
-      <c r="P116" s="115"/>
-      <c r="Q116" s="116"/>
+      <c r="O116" s="117"/>
+      <c r="P116" s="118"/>
+      <c r="Q116" s="119"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="D117" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B117" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C117" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E117" s="30">
-        <v>947441744</v>
-      </c>
+      <c r="E117" s="30"/>
       <c r="F117" s="30" t="s">
         <v>17</v>
       </c>
@@ -34454,7 +34200,7 @@
         <v>18</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I117" s="30" t="s">
         <v>19</v>
@@ -34474,33 +34220,31 @@
       <c r="N117" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O117" s="111">
+      <c r="O117" s="114">
         <v>27</v>
       </c>
-      <c r="P117" s="112">
+      <c r="P117" s="115">
         <v>32282.49</v>
       </c>
-      <c r="Q117" s="113">
+      <c r="Q117" s="116">
         <f>O117*P117</f>
         <v>871627.2300000001</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E118" s="17">
-        <v>997955651</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E118" s="17"/>
       <c r="F118" s="28" t="s">
         <v>17</v>
       </c>
@@ -34508,10 +34252,10 @@
         <v>18</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I118" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J118" s="30" t="s">
         <v>20</v>
@@ -34528,26 +34272,24 @@
       <c r="N118" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O118" s="111"/>
-      <c r="P118" s="112"/>
-      <c r="Q118" s="113"/>
+      <c r="O118" s="114"/>
+      <c r="P118" s="115"/>
+      <c r="Q118" s="116"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C119" s="79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="E119" s="30">
-        <v>973740924</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E119" s="30"/>
       <c r="F119" s="28" t="s">
         <v>17</v>
       </c>
@@ -34555,7 +34297,7 @@
         <v>18</v>
       </c>
       <c r="H119" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I119" s="30" t="s">
         <v>19</v>
@@ -34575,26 +34317,24 @@
       <c r="N119" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O119" s="111"/>
-      <c r="P119" s="112"/>
-      <c r="Q119" s="113"/>
+      <c r="O119" s="114"/>
+      <c r="P119" s="115"/>
+      <c r="Q119" s="116"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C120" s="79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E120" s="30">
-        <v>964386883</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E120" s="30"/>
       <c r="F120" s="30" t="s">
         <v>17</v>
       </c>
@@ -34602,10 +34342,10 @@
         <v>18</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I120" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J120" s="30" t="s">
         <v>20</v>
@@ -34622,26 +34362,24 @@
       <c r="N120" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O120" s="111"/>
-      <c r="P120" s="112"/>
-      <c r="Q120" s="113"/>
+      <c r="O120" s="114"/>
+      <c r="P120" s="115"/>
+      <c r="Q120" s="116"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C121" s="79" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E121" s="30">
-        <v>945800428</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E121" s="30"/>
       <c r="F121" s="30" t="s">
         <v>17</v>
       </c>
@@ -34669,26 +34407,24 @@
       <c r="N121" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O121" s="111"/>
-      <c r="P121" s="112"/>
-      <c r="Q121" s="113"/>
+      <c r="O121" s="114"/>
+      <c r="P121" s="115"/>
+      <c r="Q121" s="116"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C122" s="79" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E122" s="28">
-        <v>952152517</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E122" s="28"/>
       <c r="F122" s="28" t="s">
         <v>17</v>
       </c>
@@ -34696,10 +34432,10 @@
         <v>18</v>
       </c>
       <c r="H122" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J122" s="28" t="s">
         <v>20</v>
@@ -34716,26 +34452,24 @@
       <c r="N122" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O122" s="111"/>
-      <c r="P122" s="112"/>
-      <c r="Q122" s="113"/>
+      <c r="O122" s="114"/>
+      <c r="P122" s="115"/>
+      <c r="Q122" s="116"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C123" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E123" s="28">
-        <v>942328851</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E123" s="28"/>
       <c r="F123" s="28" t="s">
         <v>17</v>
       </c>
@@ -34763,26 +34497,24 @@
       <c r="N123" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O123" s="111"/>
-      <c r="P123" s="112"/>
-      <c r="Q123" s="113"/>
+      <c r="O123" s="114"/>
+      <c r="P123" s="115"/>
+      <c r="Q123" s="116"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E124" s="17">
-        <v>966312534</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="E124" s="17"/>
       <c r="F124" s="28" t="s">
         <v>17</v>
       </c>
@@ -34790,10 +34522,10 @@
         <v>18</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I124" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J124" s="17" t="s">
         <v>20</v>
@@ -34810,26 +34542,24 @@
       <c r="N124" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O124" s="111"/>
-      <c r="P124" s="112"/>
-      <c r="Q124" s="113"/>
+      <c r="O124" s="114"/>
+      <c r="P124" s="115"/>
+      <c r="Q124" s="116"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C125" s="79" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D125" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="E125" s="28">
-        <v>990710688</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E125" s="28"/>
       <c r="F125" s="30" t="s">
         <v>17</v>
       </c>
@@ -34857,26 +34587,24 @@
       <c r="N125" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O125" s="111"/>
-      <c r="P125" s="112"/>
-      <c r="Q125" s="113"/>
+      <c r="O125" s="114"/>
+      <c r="P125" s="115"/>
+      <c r="Q125" s="116"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C126" s="79" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="E126" s="28">
-        <v>926196124</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E126" s="28"/>
       <c r="F126" s="28" t="s">
         <v>17</v>
       </c>
@@ -34884,10 +34612,10 @@
         <v>18</v>
       </c>
       <c r="H126" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I126" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J126" s="30" t="s">
         <v>20</v>
@@ -34904,26 +34632,24 @@
       <c r="N126" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O126" s="111"/>
-      <c r="P126" s="112"/>
-      <c r="Q126" s="113"/>
+      <c r="O126" s="114"/>
+      <c r="P126" s="115"/>
+      <c r="Q126" s="116"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C127" s="79" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D127" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="E127" s="28">
-        <v>934229951</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E127" s="28"/>
       <c r="F127" s="30" t="s">
         <v>17</v>
       </c>
@@ -34931,10 +34657,10 @@
         <v>18</v>
       </c>
       <c r="H127" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J127" s="28" t="s">
         <v>20</v>
@@ -34951,26 +34677,24 @@
       <c r="N127" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O127" s="111"/>
-      <c r="P127" s="112"/>
-      <c r="Q127" s="113"/>
+      <c r="O127" s="114"/>
+      <c r="P127" s="115"/>
+      <c r="Q127" s="116"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C128" s="79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E128" s="17">
-        <v>954420824</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E128" s="17"/>
       <c r="F128" s="28" t="s">
         <v>17</v>
       </c>
@@ -34978,10 +34702,10 @@
         <v>18</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I128" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J128" s="30" t="s">
         <v>20</v>
@@ -34998,26 +34722,24 @@
       <c r="N128" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O128" s="111"/>
-      <c r="P128" s="112"/>
-      <c r="Q128" s="113"/>
+      <c r="O128" s="114"/>
+      <c r="P128" s="115"/>
+      <c r="Q128" s="116"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E129" s="17">
-        <v>989936641</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E129" s="17"/>
       <c r="F129" s="28" t="s">
         <v>17</v>
       </c>
@@ -35025,10 +34747,10 @@
         <v>18</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J129" s="30" t="s">
         <v>20</v>
@@ -35045,26 +34767,24 @@
       <c r="N129" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O129" s="111"/>
-      <c r="P129" s="112"/>
-      <c r="Q129" s="113"/>
+      <c r="O129" s="114"/>
+      <c r="P129" s="115"/>
+      <c r="Q129" s="116"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E130" s="17">
-        <v>986380562</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E130" s="17"/>
       <c r="F130" s="28" t="s">
         <v>17</v>
       </c>
@@ -35092,26 +34812,24 @@
       <c r="N130" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O130" s="111"/>
-      <c r="P130" s="112"/>
-      <c r="Q130" s="113"/>
+      <c r="O130" s="114"/>
+      <c r="P130" s="115"/>
+      <c r="Q130" s="116"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C131" s="79" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E131" s="30">
-        <v>994629448</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E131" s="30"/>
       <c r="F131" s="30" t="s">
         <v>17</v>
       </c>
@@ -35119,10 +34837,10 @@
         <v>18</v>
       </c>
       <c r="H131" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I131" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J131" s="30" t="s">
         <v>20</v>
@@ -35139,26 +34857,24 @@
       <c r="N131" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O131" s="111"/>
-      <c r="P131" s="112"/>
-      <c r="Q131" s="113"/>
+      <c r="O131" s="114"/>
+      <c r="P131" s="115"/>
+      <c r="Q131" s="116"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C132" s="79" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E132" s="28">
-        <v>965056369</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E132" s="28"/>
       <c r="F132" s="28" t="s">
         <v>17</v>
       </c>
@@ -35166,10 +34882,10 @@
         <v>18</v>
       </c>
       <c r="H132" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I132" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J132" s="28" t="s">
         <v>20</v>
@@ -35186,26 +34902,24 @@
       <c r="N132" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O132" s="111"/>
-      <c r="P132" s="112"/>
-      <c r="Q132" s="113"/>
+      <c r="O132" s="114"/>
+      <c r="P132" s="115"/>
+      <c r="Q132" s="116"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C133" s="79" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D133" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="E133" s="28">
-        <v>976068527</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E133" s="28"/>
       <c r="F133" s="30" t="s">
         <v>17</v>
       </c>
@@ -35213,10 +34927,10 @@
         <v>18</v>
       </c>
       <c r="H133" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I133" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J133" s="28" t="s">
         <v>20</v>
@@ -35233,26 +34947,24 @@
       <c r="N133" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O133" s="111"/>
-      <c r="P133" s="112"/>
-      <c r="Q133" s="113"/>
+      <c r="O133" s="114"/>
+      <c r="P133" s="115"/>
+      <c r="Q133" s="116"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C134" s="79" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="E134" s="30">
-        <v>933559096</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E134" s="30"/>
       <c r="F134" s="30" t="s">
         <v>17</v>
       </c>
@@ -35260,10 +34972,10 @@
         <v>18</v>
       </c>
       <c r="H134" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I134" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J134" s="30" t="s">
         <v>20</v>
@@ -35280,26 +34992,24 @@
       <c r="N134" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O134" s="111"/>
-      <c r="P134" s="112"/>
-      <c r="Q134" s="113"/>
+      <c r="O134" s="114"/>
+      <c r="P134" s="115"/>
+      <c r="Q134" s="116"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C135" s="79" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="E135" s="28">
-        <v>926208133</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E135" s="28"/>
       <c r="F135" s="28" t="s">
         <v>17</v>
       </c>
@@ -35307,10 +35017,10 @@
         <v>18</v>
       </c>
       <c r="H135" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I135" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J135" s="30" t="s">
         <v>20</v>
@@ -35327,26 +35037,24 @@
       <c r="N135" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O135" s="111"/>
-      <c r="P135" s="112"/>
-      <c r="Q135" s="113"/>
+      <c r="O135" s="114"/>
+      <c r="P135" s="115"/>
+      <c r="Q135" s="116"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C136" s="79" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D136" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="E136" s="28">
-        <v>933859229</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E136" s="28"/>
       <c r="F136" s="30" t="s">
         <v>17</v>
       </c>
@@ -35374,26 +35082,24 @@
       <c r="N136" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O136" s="111"/>
-      <c r="P136" s="112"/>
-      <c r="Q136" s="113"/>
+      <c r="O136" s="114"/>
+      <c r="P136" s="115"/>
+      <c r="Q136" s="116"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E137" s="17">
-        <v>973894762</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E137" s="17"/>
       <c r="F137" s="28" t="s">
         <v>17</v>
       </c>
@@ -35401,10 +35107,10 @@
         <v>18</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I137" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J137" s="59" t="s">
         <v>20</v>
@@ -35421,26 +35127,24 @@
       <c r="N137" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O137" s="111"/>
-      <c r="P137" s="112"/>
-      <c r="Q137" s="113"/>
+      <c r="O137" s="114"/>
+      <c r="P137" s="115"/>
+      <c r="Q137" s="116"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C138" s="79" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="E138" s="30">
-        <v>950651711</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E138" s="30"/>
       <c r="F138" s="30" t="s">
         <v>17</v>
       </c>
@@ -35448,10 +35152,10 @@
         <v>18</v>
       </c>
       <c r="H138" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I138" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J138" s="30" t="s">
         <v>20</v>
@@ -35468,26 +35172,24 @@
       <c r="N138" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O138" s="111"/>
-      <c r="P138" s="112"/>
-      <c r="Q138" s="113"/>
+      <c r="O138" s="114"/>
+      <c r="P138" s="115"/>
+      <c r="Q138" s="116"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B139" s="81" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E139" s="17">
-        <v>999964880</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E139" s="17"/>
       <c r="F139" s="28" t="s">
         <v>17</v>
       </c>
@@ -35495,10 +35197,10 @@
         <v>18</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I139" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J139" s="17" t="s">
         <v>20</v>
@@ -35515,26 +35217,24 @@
       <c r="N139" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O139" s="111"/>
-      <c r="P139" s="112"/>
-      <c r="Q139" s="113"/>
+      <c r="O139" s="114"/>
+      <c r="P139" s="115"/>
+      <c r="Q139" s="116"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B140" s="82" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C140" s="79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="E140" s="30">
-        <v>961641495</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E140" s="30"/>
       <c r="F140" s="30" t="s">
         <v>17</v>
       </c>
@@ -35542,10 +35242,10 @@
         <v>18</v>
       </c>
       <c r="H140" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I140" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J140" s="30" t="s">
         <v>20</v>
@@ -35562,26 +35262,24 @@
       <c r="N140" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O140" s="111"/>
-      <c r="P140" s="112"/>
-      <c r="Q140" s="113"/>
+      <c r="O140" s="114"/>
+      <c r="P140" s="115"/>
+      <c r="Q140" s="116"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C141" s="79" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="E141" s="30">
-        <v>937011050</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E141" s="30"/>
       <c r="F141" s="28" t="s">
         <v>17</v>
       </c>
@@ -35609,26 +35307,24 @@
       <c r="N141" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="O141" s="111"/>
-      <c r="P141" s="112"/>
-      <c r="Q141" s="113"/>
+      <c r="O141" s="114"/>
+      <c r="P141" s="115"/>
+      <c r="Q141" s="116"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E142" s="50">
-        <v>937138586</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E142" s="50"/>
       <c r="F142" s="86" t="s">
         <v>17</v>
       </c>
@@ -35636,7 +35332,7 @@
         <v>18</v>
       </c>
       <c r="H142" s="50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I142" s="53" t="s">
         <v>19</v>
@@ -35656,26 +35352,24 @@
       <c r="N142" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="O142" s="111"/>
-      <c r="P142" s="112"/>
-      <c r="Q142" s="113"/>
+      <c r="O142" s="114"/>
+      <c r="P142" s="115"/>
+      <c r="Q142" s="116"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C143" s="79" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="E143" s="17">
-        <v>951882221</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E143" s="17"/>
       <c r="F143" s="28" t="s">
         <v>17</v>
       </c>
@@ -35683,10 +35377,10 @@
         <v>18</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I143" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J143" s="30" t="s">
         <v>20</v>
@@ -35698,31 +35392,29 @@
         <v>45755</v>
       </c>
       <c r="M143" s="50" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N143" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O143" s="111"/>
-      <c r="P143" s="112"/>
-      <c r="Q143" s="113"/>
+      <c r="O143" s="114"/>
+      <c r="P143" s="115"/>
+      <c r="Q143" s="116"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="89" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B144" s="89" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C144" s="90" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D144" s="91" t="s">
-        <v>528</v>
-      </c>
-      <c r="E144" s="89">
-        <v>991228905</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="E144" s="89"/>
       <c r="F144" s="89" t="s">
         <v>17</v>
       </c>
@@ -35730,10 +35422,10 @@
         <v>18</v>
       </c>
       <c r="H144" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I144" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J144" s="89" t="s">
         <v>20</v>
@@ -35745,7 +35437,7 @@
         <v>45755</v>
       </c>
       <c r="M144" s="92" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N144" s="94" t="s">
         <v>23</v>
@@ -35763,34 +35455,32 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C145" s="95" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D145" s="96" t="s">
-        <v>483</v>
-      </c>
-      <c r="E145" s="97">
-        <v>932931700</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="E145" s="97"/>
       <c r="F145" s="16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G145" s="97" t="s">
         <v>18</v>
       </c>
       <c r="H145" s="97" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I145" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J145" s="16" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K145" s="54" t="s">
         <v>21</v>
@@ -35804,33 +35494,31 @@
       <c r="N145" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="O145" s="111">
+      <c r="O145" s="114">
         <v>14</v>
       </c>
-      <c r="P145" s="112">
+      <c r="P145" s="115">
         <v>32282.49</v>
       </c>
-      <c r="Q145" s="113">
+      <c r="Q145" s="116">
         <f>O145*P145</f>
         <v>451954.86000000004</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C146" s="95" t="s">
+        <v>479</v>
+      </c>
+      <c r="D146" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="B146" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="C146" s="95" t="s">
-        <v>486</v>
-      </c>
-      <c r="D146" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="E146" s="56">
-        <v>993322302</v>
-      </c>
+      <c r="E146" s="56"/>
       <c r="F146" s="54" t="s">
         <v>17</v>
       </c>
@@ -35858,26 +35546,24 @@
       <c r="N146" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="O146" s="111"/>
-      <c r="P146" s="112"/>
-      <c r="Q146" s="113"/>
+      <c r="O146" s="114"/>
+      <c r="P146" s="115"/>
+      <c r="Q146" s="116"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C147" s="95" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="E147" s="20">
-        <v>949303502</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="E147" s="20"/>
       <c r="F147" s="16" t="s">
         <v>17</v>
       </c>
@@ -35885,10 +35571,10 @@
         <v>18</v>
       </c>
       <c r="H147" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I147" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J147" s="16" t="s">
         <v>20</v>
@@ -35905,26 +35591,24 @@
       <c r="N147" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O147" s="111"/>
-      <c r="P147" s="112"/>
-      <c r="Q147" s="113"/>
+      <c r="O147" s="114"/>
+      <c r="P147" s="115"/>
+      <c r="Q147" s="116"/>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C148" s="95" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D148" s="96" t="s">
-        <v>490</v>
-      </c>
-      <c r="E148" s="98">
-        <v>974141794</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="E148" s="98"/>
       <c r="F148" s="54" t="s">
         <v>17</v>
       </c>
@@ -35932,13 +35616,13 @@
         <v>18</v>
       </c>
       <c r="H148" s="98" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J148" s="54" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K148" s="54" t="s">
         <v>21</v>
@@ -35952,26 +35636,24 @@
       <c r="N148" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O148" s="111"/>
-      <c r="P148" s="112"/>
-      <c r="Q148" s="113"/>
+      <c r="O148" s="114"/>
+      <c r="P148" s="115"/>
+      <c r="Q148" s="116"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C149" s="95" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D149" s="96" t="s">
-        <v>495</v>
-      </c>
-      <c r="E149" s="97">
-        <v>944057898</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="E149" s="97"/>
       <c r="F149" s="16" t="s">
         <v>17</v>
       </c>
@@ -35985,7 +35667,7 @@
         <v>19</v>
       </c>
       <c r="J149" s="16" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K149" s="54" t="s">
         <v>21</v>
@@ -35999,26 +35681,24 @@
       <c r="N149" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O149" s="111"/>
-      <c r="P149" s="112"/>
-      <c r="Q149" s="113"/>
+      <c r="O149" s="114"/>
+      <c r="P149" s="115"/>
+      <c r="Q149" s="116"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B150" s="73" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C150" s="95" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D150" s="73" t="s">
-        <v>498</v>
-      </c>
-      <c r="E150" s="73">
-        <v>981841265</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="E150" s="73"/>
       <c r="F150" s="16" t="s">
         <v>17</v>
       </c>
@@ -36026,10 +35706,10 @@
         <v>18</v>
       </c>
       <c r="H150" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J150" s="16" t="s">
         <v>20</v>
@@ -36046,26 +35726,24 @@
       <c r="N150" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O150" s="111"/>
-      <c r="P150" s="112"/>
-      <c r="Q150" s="113"/>
+      <c r="O150" s="114"/>
+      <c r="P150" s="115"/>
+      <c r="Q150" s="116"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C151" s="62" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D151" s="96" t="s">
-        <v>501</v>
-      </c>
-      <c r="E151" s="97">
-        <v>956127990</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="E151" s="97"/>
       <c r="F151" s="16" t="s">
         <v>17</v>
       </c>
@@ -36073,13 +35751,13 @@
         <v>18</v>
       </c>
       <c r="H151" s="97" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I151" s="16" t="s">
         <v>19</v>
       </c>
       <c r="J151" s="16" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K151" s="54" t="s">
         <v>21</v>
@@ -36093,26 +35771,24 @@
       <c r="N151" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="O151" s="111"/>
-      <c r="P151" s="112"/>
-      <c r="Q151" s="113"/>
+      <c r="O151" s="114"/>
+      <c r="P151" s="115"/>
+      <c r="Q151" s="116"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C152" s="62" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D152" s="96" t="s">
-        <v>504</v>
-      </c>
-      <c r="E152" s="97">
-        <v>934612193</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="E152" s="97"/>
       <c r="F152" s="16" t="s">
         <v>17</v>
       </c>
@@ -36120,13 +35796,13 @@
         <v>18</v>
       </c>
       <c r="H152" s="97" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J152" s="16" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K152" s="54" t="s">
         <v>21</v>
@@ -36140,26 +35816,24 @@
       <c r="N152" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O152" s="111"/>
-      <c r="P152" s="112"/>
-      <c r="Q152" s="113"/>
+      <c r="O152" s="114"/>
+      <c r="P152" s="115"/>
+      <c r="Q152" s="116"/>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C153" s="62" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="E153" s="20">
-        <v>989467920</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="E153" s="20"/>
       <c r="F153" s="16" t="s">
         <v>17</v>
       </c>
@@ -36167,10 +35841,10 @@
         <v>18</v>
       </c>
       <c r="H153" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I153" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J153" s="16" t="s">
         <v>20</v>
@@ -36187,26 +35861,24 @@
       <c r="N153" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O153" s="111"/>
-      <c r="P153" s="112"/>
-      <c r="Q153" s="113"/>
+      <c r="O153" s="114"/>
+      <c r="P153" s="115"/>
+      <c r="Q153" s="116"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C154" s="62" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D154" s="96" t="s">
-        <v>511</v>
-      </c>
-      <c r="E154" s="97">
-        <v>930814889</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="E154" s="97"/>
       <c r="F154" s="16" t="s">
         <v>17</v>
       </c>
@@ -36214,13 +35886,13 @@
         <v>18</v>
       </c>
       <c r="H154" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I154" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J154" s="16" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K154" s="54" t="s">
         <v>21</v>
@@ -36234,26 +35906,24 @@
       <c r="N154" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O154" s="111"/>
-      <c r="P154" s="112"/>
-      <c r="Q154" s="113"/>
+      <c r="O154" s="114"/>
+      <c r="P154" s="115"/>
+      <c r="Q154" s="116"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C155" s="62" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D155" s="96" t="s">
-        <v>514</v>
-      </c>
-      <c r="E155" s="97" t="s">
-        <v>515</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="E155" s="97"/>
       <c r="F155" s="16" t="s">
         <v>17</v>
       </c>
@@ -36261,13 +35931,13 @@
         <v>18</v>
       </c>
       <c r="H155" s="97" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I155" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J155" s="16" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K155" s="54" t="s">
         <v>21</v>
@@ -36281,26 +35951,24 @@
       <c r="N155" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O155" s="111"/>
-      <c r="P155" s="112"/>
-      <c r="Q155" s="113"/>
+      <c r="O155" s="114"/>
+      <c r="P155" s="115"/>
+      <c r="Q155" s="116"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C156" s="95" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="E156" s="20">
-        <v>946968793</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="E156" s="20"/>
       <c r="F156" s="16" t="s">
         <v>17</v>
       </c>
@@ -36328,26 +35996,24 @@
       <c r="N156" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O156" s="111"/>
-      <c r="P156" s="112"/>
-      <c r="Q156" s="113"/>
+      <c r="O156" s="114"/>
+      <c r="P156" s="115"/>
+      <c r="Q156" s="116"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C157" s="62" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D157" s="96" t="s">
-        <v>521</v>
-      </c>
-      <c r="E157" s="97">
-        <v>994065902</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="E157" s="97"/>
       <c r="F157" s="16" t="s">
         <v>17</v>
       </c>
@@ -36355,13 +36021,13 @@
         <v>18</v>
       </c>
       <c r="H157" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I157" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J157" s="16" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K157" s="16" t="s">
         <v>21</v>
@@ -36375,26 +36041,24 @@
       <c r="N157" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O157" s="111"/>
-      <c r="P157" s="112"/>
-      <c r="Q157" s="113"/>
+      <c r="O157" s="114"/>
+      <c r="P157" s="115"/>
+      <c r="Q157" s="116"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="59" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C158" s="62" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D158" s="96" t="s">
-        <v>524</v>
-      </c>
-      <c r="E158" s="97">
-        <v>947329862</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="E158" s="97"/>
       <c r="F158" s="16" t="s">
         <v>17</v>
       </c>
@@ -36408,7 +36072,7 @@
         <v>19</v>
       </c>
       <c r="J158" s="16" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K158" s="16" t="s">
         <v>21</v>
@@ -36422,9 +36086,9 @@
       <c r="N158" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O158" s="111"/>
-      <c r="P158" s="112"/>
-      <c r="Q158" s="113"/>
+      <c r="O158" s="114"/>
+      <c r="P158" s="115"/>
+      <c r="Q158" s="116"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q158" xr:uid="{79480E7D-249A-4D45-A83B-E1F080B16A9B}">
@@ -36433,30 +36097,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="33">
-    <mergeCell ref="O2:O13"/>
-    <mergeCell ref="P2:P13"/>
-    <mergeCell ref="Q2:Q13"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="O17:O29"/>
-    <mergeCell ref="P17:P29"/>
-    <mergeCell ref="Q17:Q29"/>
-    <mergeCell ref="O30:O60"/>
-    <mergeCell ref="P30:P60"/>
-    <mergeCell ref="Q30:Q60"/>
-    <mergeCell ref="O61:O83"/>
-    <mergeCell ref="P61:P83"/>
-    <mergeCell ref="Q61:Q83"/>
-    <mergeCell ref="O84:O95"/>
-    <mergeCell ref="P84:P95"/>
-    <mergeCell ref="Q84:Q95"/>
-    <mergeCell ref="O96:O108"/>
-    <mergeCell ref="P96:P108"/>
-    <mergeCell ref="Q96:Q108"/>
-    <mergeCell ref="O109:O114"/>
-    <mergeCell ref="P109:P114"/>
-    <mergeCell ref="Q109:Q114"/>
     <mergeCell ref="O145:O158"/>
     <mergeCell ref="P145:P158"/>
     <mergeCell ref="Q145:Q158"/>
@@ -36466,6 +36106,30 @@
     <mergeCell ref="O117:O143"/>
     <mergeCell ref="P117:P143"/>
     <mergeCell ref="Q117:Q143"/>
+    <mergeCell ref="O96:O108"/>
+    <mergeCell ref="P96:P108"/>
+    <mergeCell ref="Q96:Q108"/>
+    <mergeCell ref="O109:O114"/>
+    <mergeCell ref="P109:P114"/>
+    <mergeCell ref="Q109:Q114"/>
+    <mergeCell ref="O61:O83"/>
+    <mergeCell ref="P61:P83"/>
+    <mergeCell ref="Q61:Q83"/>
+    <mergeCell ref="O84:O95"/>
+    <mergeCell ref="P84:P95"/>
+    <mergeCell ref="Q84:Q95"/>
+    <mergeCell ref="O17:O29"/>
+    <mergeCell ref="P17:P29"/>
+    <mergeCell ref="Q17:Q29"/>
+    <mergeCell ref="O30:O60"/>
+    <mergeCell ref="P30:P60"/>
+    <mergeCell ref="Q30:Q60"/>
+    <mergeCell ref="O2:O13"/>
+    <mergeCell ref="P2:P13"/>
+    <mergeCell ref="Q2:Q13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="Q14:Q16"/>
   </mergeCells>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="287" priority="302"/>
@@ -36946,6 +36610,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0cf482ee-27b9-417a-a9cd-4df54ef01093" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c67b33a9-bb9c-4307-9489-9d5941510c6c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FC4829B228FF5F42A5A5676DA73D725B" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e90e6e09baf55ef109e6a4fc30a3d35c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c67b33a9-bb9c-4307-9489-9d5941510c6c" xmlns:ns3="0cf482ee-27b9-417a-a9cd-4df54ef01093" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9f399a759d175d20ad053ca36ce7ed6" ns2:_="" ns3:_="">
     <xsd:import namespace="c67b33a9-bb9c-4307-9489-9d5941510c6c"/>
@@ -37180,17 +36855,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0cf482ee-27b9-417a-a9cd-4df54ef01093" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c67b33a9-bb9c-4307-9489-9d5941510c6c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -37201,6 +36865,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DB4C4A3-BBC0-498F-8F25-52A229518AF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0cf482ee-27b9-417a-a9cd-4df54ef01093"/>
+    <ds:schemaRef ds:uri="c67b33a9-bb9c-4307-9489-9d5941510c6c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E7E9E0D-3C0C-48B0-80CC-A637520167D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37219,17 +36894,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DB4C4A3-BBC0-498F-8F25-52A229518AF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0cf482ee-27b9-417a-a9cd-4df54ef01093"/>
-    <ds:schemaRef ds:uri="c67b33a9-bb9c-4307-9489-9d5941510c6c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55B37E33-430B-44FE-B51D-B2EA6BE24DDF}">
   <ds:schemaRefs>
